--- a/December2020/MAHENDIA.xlsx
+++ b/December2020/MAHENDIA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="SINGH COMMUNICATION-(660315658)" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="MS RIYA ENTERPRISES-(661562283)" sheetId="10" r:id="rId9"/>
     <sheet name="MUKESH PAN-(661613669)" sheetId="11" r:id="rId10"/>
     <sheet name=" MAA VINDHWASH COMM-(660301564)" sheetId="12" r:id="rId11"/>
+    <sheet name="Sahaj Vasudha Kend-(660624994)" sheetId="13" r:id="rId12"/>
+    <sheet name="ANKIT MOBILE CENTRE-(661025000)" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>SINGH COMMUNICATION-(660315658)</t>
   </si>
@@ -65,6 +67,9 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>Digital</t>
+  </si>
+  <si>
     <t>BAJRANG MOBILE ELECTRIC &amp; ELECTRONI-(661591707)</t>
   </si>
   <si>
@@ -81,9 +86,6 @@
   </si>
   <si>
     <t>GUPTA PAN DUKAN-(661063901)</t>
-  </si>
-  <si>
-    <t>Digital</t>
   </si>
   <si>
     <t>SUBODH PAN-(661562286)</t>
@@ -103,6 +105,12 @@
   <si>
     <t xml:space="preserve"> MAA VINDHWASHNI COMMUNICATION-Mehendia-(660301564)</t>
   </si>
+  <si>
+    <t>Sahaj Vasudha Kendra-(660624994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKIT MOBILE CENTRE-(661025000) </t>
+  </si>
 </sst>
 </file>
 
@@ -110,10 +118,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,93 +138,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -226,6 +147,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,16 +173,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,7 +236,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,11 +503,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,30 +553,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +583,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,15 +605,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,130 +623,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -746,9 +754,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,40 +781,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,213 +1121,225 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="4" width="16.8571428571429" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14" style="8" customWidth="1"/>
-    <col min="7" max="16382" width="9.14285714285714" style="8"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="15"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="16382" width="9.14285714285714" style="1"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:8">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="7">
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="10">
         <v>44167</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>3120</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>3000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="10">
         <v>44169</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>3000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="10">
         <v>44170</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
-      <c r="A7" s="7">
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="10">
         <v>44170</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1040</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>2000</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="7">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="10">
         <v>44170</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>1040</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" s="3" customFormat="1" spans="1:5">
+      <c r="A9" s="10">
         <v>44171</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>3120</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>6000</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="15" customFormat="1" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" s="16" customFormat="1" spans="1:5">
+      <c r="A10" s="10">
         <v>44172</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>5200</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <v>11000</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" s="15" customFormat="1"/>
-    <row r="12" s="15" customFormat="1"/>
-    <row r="13" s="8" customFormat="1"/>
-    <row r="14" s="8" customFormat="1"/>
-    <row r="15" s="8" customFormat="1"/>
-    <row r="16" s="12" customFormat="1"/>
-    <row r="17" s="12" customFormat="1"/>
-    <row r="18" s="12" customFormat="1"/>
-    <row r="19" s="12" customFormat="1"/>
-    <row r="20" s="12" customFormat="1"/>
-    <row r="21" s="12" customFormat="1"/>
-    <row r="22" s="12" customFormat="1"/>
-    <row r="23" s="12" customFormat="1"/>
-    <row r="24" s="12" customFormat="1"/>
-    <row r="25" s="12" customFormat="1"/>
-    <row r="26" s="12" customFormat="1"/>
-    <row r="27" s="12" customFormat="1"/>
-    <row r="28" s="8" customFormat="1"/>
-    <row r="29" s="8" customFormat="1"/>
-    <row r="30" s="8" customFormat="1"/>
-    <row r="31" s="12" customFormat="1"/>
-    <row r="32" s="12" customFormat="1"/>
-    <row r="33" s="12" customFormat="1"/>
-    <row r="34" s="12" customFormat="1"/>
-    <row r="35" s="12" customFormat="1"/>
-    <row r="36" s="8" customFormat="1" spans="1:1">
-      <c r="A36" s="13"/>
-    </row>
-    <row r="37" s="8" customFormat="1" spans="1:1">
-      <c r="A37" s="13"/>
-    </row>
-    <row r="38" s="8" customFormat="1"/>
-    <row r="39" s="12" customFormat="1"/>
-    <row r="40" s="12" customFormat="1"/>
-    <row r="41" s="12" customFormat="1"/>
-    <row r="42" s="12" customFormat="1"/>
-    <row r="43" s="8" customFormat="1" spans="1:1">
-      <c r="A43" s="13"/>
-    </row>
-    <row r="44" s="8" customFormat="1"/>
-    <row r="45" s="8" customFormat="1"/>
-    <row r="46" s="12" customFormat="1"/>
-    <row r="47" s="12" customFormat="1"/>
-    <row r="48" s="12" customFormat="1"/>
-    <row r="49" s="8" customFormat="1" spans="1:1">
-      <c r="A49" s="13"/>
-    </row>
-    <row r="50" s="8" customFormat="1"/>
-    <row r="51" s="8" customFormat="1"/>
-    <row r="52" s="8" customFormat="1" spans="1:1">
-      <c r="A52" s="13"/>
+    <row r="11" s="16" customFormat="1" spans="1:5">
+      <c r="A11" s="10">
+        <v>44172</v>
+      </c>
+      <c r="C11" s="16">
+        <v>6000</v>
+      </c>
+      <c r="D11" s="16">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" s="16" customFormat="1"/>
+    <row r="13" s="1" customFormat="1"/>
+    <row r="14" s="1" customFormat="1"/>
+    <row r="15" s="1" customFormat="1"/>
+    <row r="16" s="3" customFormat="1"/>
+    <row r="17" s="3" customFormat="1"/>
+    <row r="18" s="3" customFormat="1"/>
+    <row r="19" s="3" customFormat="1"/>
+    <row r="20" s="3" customFormat="1"/>
+    <row r="21" s="3" customFormat="1"/>
+    <row r="22" s="3" customFormat="1"/>
+    <row r="23" s="3" customFormat="1"/>
+    <row r="24" s="3" customFormat="1"/>
+    <row r="25" s="3" customFormat="1"/>
+    <row r="26" s="3" customFormat="1"/>
+    <row r="27" s="3" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="3" customFormat="1"/>
+    <row r="32" s="3" customFormat="1"/>
+    <row r="33" s="3" customFormat="1"/>
+    <row r="34" s="3" customFormat="1"/>
+    <row r="35" s="3" customFormat="1"/>
+    <row r="36" s="1" customFormat="1" spans="1:1">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:1">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="3" customFormat="1"/>
+    <row r="40" s="3" customFormat="1"/>
+    <row r="41" s="3" customFormat="1"/>
+    <row r="42" s="3" customFormat="1"/>
+    <row r="43" s="1" customFormat="1" spans="1:1">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="3" customFormat="1"/>
+    <row r="47" s="3" customFormat="1"/>
+    <row r="48" s="3" customFormat="1"/>
+    <row r="49" s="1" customFormat="1" spans="1:1">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" s="1" customFormat="1"/>
+    <row r="51" s="1" customFormat="1"/>
+    <row r="52" s="1" customFormat="1" spans="1:1">
+      <c r="A52" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1333,61 +1353,90 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10">
+        <v>44169</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10">
+        <v>44169</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1421,42 +1470,42 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1470,104 +1519,377 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="6">
+        <v>44167</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="6">
+        <v>44168</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="6">
+        <v>44171</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>44173</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="6">
+        <v>44167</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="6">
+        <v>44172</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="6">
+        <v>44172</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="7">
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="10">
         <v>44167</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1040</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>1000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="10">
         <v>44169</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="10">
         <v>44170</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10">
+        <v>44171</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10">
+        <v>44172</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10">
+        <v>44173</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1907,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1598,69 +1920,69 @@
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="7">
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="10">
         <v>44168</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>3120</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>1000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="10">
         <v>44169</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>3000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1677,172 +1999,182 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="32.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="32.1428571428571" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="7">
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="10">
         <v>44168</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2080</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>2000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="10">
         <v>44169</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>1040</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>3000</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="10">
         <v>44169</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>4000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="10">
         <v>44169</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>3120</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>7000</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="10">
         <v>44169</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>2000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>5000</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" s="3" customFormat="1" spans="1:5">
+      <c r="A9" s="10">
         <v>44170</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>2080</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>7000</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" s="3" customFormat="1" spans="1:5">
+      <c r="A10" s="10">
         <v>44171</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>5200</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>12000</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7">
+      <c r="A11" s="10">
         <v>44171</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>12000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10">
+        <v>44173</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -1858,156 +2190,170 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="14"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="7">
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="10">
         <v>44167</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>2000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="10">
         <v>44168</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="7">
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="10">
         <v>44169</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="10">
         <v>44169</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1040</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>2000</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="10">
         <v>44169</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>1000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="7">
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:5">
+      <c r="A9" s="10">
         <v>44171</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>3120</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" s="3" customFormat="1" spans="1:5">
+      <c r="A10" s="10">
         <v>44171</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>3000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10">
+        <v>44173</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2022,84 +2368,112 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="12"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" s="8" customFormat="1" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:5">
-      <c r="A4" s="13">
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="6">
         <v>44169</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="1">
         <v>1040</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="1">
         <v>1000</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>44169</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6" s="6">
         <v>44172</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="3">
         <v>2080</v>
       </c>
-      <c r="D6" s="12">
-        <v>3000</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>44173</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2123,47 +2497,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" s="8" customFormat="1" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2180,115 +2554,130 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="17" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="7">
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="10">
         <v>44169</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1040</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>1000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="10">
         <v>44169</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="10">
         <v>44170</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="10">
         <v>44171</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1040</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>2000</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10">
+        <v>44173</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2322,42 +2711,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
     </row>

--- a/December2020/MAHENDIA.xlsx
+++ b/December2020/MAHENDIA.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="27">
   <si>
     <t>SINGH COMMUNICATION-(660315658)</t>
   </si>
@@ -40,19 +40,13 @@
     <t>Receive Amount</t>
   </si>
   <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
     <t>Dues Amount</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t>Distributor Signature</t>
-  </si>
-  <si>
-    <t>Retailer Signature</t>
   </si>
   <si>
     <t>Last Month Carried Amount</t>
@@ -70,6 +64,9 @@
     <t>Digital</t>
   </si>
   <si>
+    <t>PhonePe</t>
+  </si>
+  <si>
     <t>BAJRANG MOBILE ELECTRIC &amp; ELECTRONI-(661591707)</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>SUMAN PHONE GHAR-(660315655)</t>
-  </si>
-  <si>
-    <t>PhonePe</t>
   </si>
   <si>
     <t>GUPTA PAN DUKAN-(661063901)</t>
@@ -103,6 +97,9 @@
     <t>MUKESH PAN BHANDAR-AMRA-(661613669)</t>
   </si>
   <si>
+    <t>Advance</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MAA VINDHWASHNI COMMUNICATION-Mehendia-(660301564)</t>
   </si>
   <si>
@@ -118,10 +115,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -138,36 +135,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,17 +159,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,8 +190,53 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,16 +249,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,39 +273,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,41 +500,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +536,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -586,8 +583,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,8 +592,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,15 +602,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,134 +620,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,9 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1121,30 +1115,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="16382" width="9.14285714285714" style="1"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="16"/>
+    <col min="7" max="16380" width="9.14285714285714" style="1"/>
+    <col min="16381" max="16384" width="9.14285714285714" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:8">
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1163,18 +1159,12 @@
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1185,11 +1175,11 @@
       <c r="B4" s="3">
         <v>3120</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
         <v>3000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -1199,11 +1189,11 @@
       <c r="C5" s="3">
         <v>3000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -1213,11 +1203,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -1227,11 +1217,11 @@
       <c r="B7" s="3">
         <v>1040</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
         <v>2000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
@@ -1241,11 +1231,11 @@
       <c r="B8" s="3">
         <v>1040</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
@@ -1255,42 +1245,55 @@
       <c r="B9" s="3">
         <v>3120</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
         <v>6000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" s="16" customFormat="1" spans="1:5">
+    </row>
+    <row r="10" s="15" customFormat="1" spans="1:5">
       <c r="A10" s="10">
         <v>44172</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>5200</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="15">
         <v>11000</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" s="16" customFormat="1" spans="1:5">
+    </row>
+    <row r="11" s="15" customFormat="1" spans="1:5">
       <c r="A11" s="10">
         <v>44172</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>6000</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15">
         <v>5000</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" s="16" customFormat="1"/>
+    </row>
+    <row r="12" s="15" customFormat="1" spans="1:5">
+      <c r="A12" s="10">
+        <v>44174</v>
+      </c>
+      <c r="C12" s="15">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" s="1" customFormat="1"/>
     <row r="14" s="1" customFormat="1"/>
     <row r="15" s="1" customFormat="1"/>
@@ -1342,7 +1345,8 @@
       <c r="A52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1353,19 +1357,19 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.14285714285714" style="3"/>
@@ -1373,7 +1377,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1400,14 +1404,14 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1418,11 +1422,11 @@
       <c r="B4" s="3">
         <v>2080</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
         <v>2000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1432,11 +1436,39 @@
       <c r="C5" s="3">
         <v>2000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10">
+        <v>44173</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10">
+        <v>44174</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1452,26 +1484,27 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:5">
+    <row r="1" s="3" customFormat="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1498,15 +1531,29 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10">
+        <v>44174</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1572,128 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="6">
+        <v>44167</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="6">
+        <v>44168</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="6">
+        <v>44171</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>44173</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1557,10 +1725,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
@@ -1568,7 +1736,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1579,134 +1747,13 @@
         <v>44167</v>
       </c>
       <c r="B4" s="1">
-        <v>1040</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="6">
-        <v>44168</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1040</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="6">
-        <v>44171</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2080</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6">
-        <v>44173</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="6">
-        <v>44167</v>
-      </c>
-      <c r="B4" s="1">
         <v>3120</v>
       </c>
       <c r="D4" s="1">
         <v>3000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -1720,7 +1767,7 @@
         <v>6000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -1734,11 +1781,22 @@
         <v>9000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>44174</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1753,10 +1811,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1764,18 +1822,19 @@
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+    <row r="1" s="3" customFormat="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -1797,14 +1856,14 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1815,11 +1874,11 @@
       <c r="B4" s="3">
         <v>1040</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
         <v>1000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -1829,11 +1888,11 @@
       <c r="C5" s="3">
         <v>1000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -1843,11 +1902,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1857,11 +1916,11 @@
       <c r="C7" s="3">
         <v>1000</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1871,11 +1930,11 @@
       <c r="B8" s="3">
         <v>2080</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1885,15 +1944,30 @@
       <c r="C9" s="3">
         <v>1000</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10">
+        <v>44174</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1904,28 +1978,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -1947,14 +2022,14 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1965,11 +2040,11 @@
       <c r="B4" s="3">
         <v>3120</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
         <v>1000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -1979,11 +2054,25 @@
       <c r="C5" s="3">
         <v>3000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10">
+        <v>44174</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -1999,10 +2088,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2010,18 +2099,18 @@
     <col min="1" max="1" width="32.1428571428571" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2043,14 +2132,14 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2061,11 +2150,11 @@
       <c r="B4" s="3">
         <v>2080</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
         <v>2000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -2075,11 +2164,11 @@
       <c r="B5" s="3">
         <v>1040</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
         <v>3000</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -2089,11 +2178,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>4000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -2103,11 +2192,11 @@
       <c r="B7" s="3">
         <v>3120</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
         <v>7000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
@@ -2117,11 +2206,11 @@
       <c r="C8" s="3">
         <v>2000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
         <v>5000</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
@@ -2131,11 +2220,11 @@
       <c r="B9" s="3">
         <v>2080</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
         <v>7000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:5">
@@ -2145,11 +2234,11 @@
       <c r="B10" s="3">
         <v>5200</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
         <v>12000</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2159,22 +2248,39 @@
       <c r="C11" s="3">
         <v>12000</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="10">
         <v>44173</v>
       </c>
       <c r="B12" s="3">
         <v>5200</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10">
+        <v>44174</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2190,10 +2296,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2201,17 +2307,17 @@
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2233,14 +2339,14 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2251,11 +2357,11 @@
       <c r="B4" s="3">
         <v>2080</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
         <v>2000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -2265,11 +2371,11 @@
       <c r="C5" s="3">
         <v>2000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -2279,11 +2385,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -2293,11 +2399,11 @@
       <c r="B7" s="3">
         <v>1040</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
         <v>2000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
@@ -2307,11 +2413,11 @@
       <c r="C8" s="3">
         <v>1000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
@@ -2321,11 +2427,11 @@
       <c r="B9" s="3">
         <v>3120</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:5">
@@ -2335,11 +2441,11 @@
       <c r="C10" s="3">
         <v>3000</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2349,11 +2455,25 @@
       <c r="C11" s="3">
         <v>1000</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10">
+        <v>44175</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2491,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2379,15 +2499,15 @@
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2412,11 +2532,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2427,11 +2547,11 @@
       <c r="B4" s="1">
         <v>1040</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>1000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2441,11 +2561,11 @@
       <c r="C5" s="3">
         <v>1000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2455,11 +2575,11 @@
       <c r="B6" s="3">
         <v>2080</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>2000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2469,11 +2589,11 @@
       <c r="C7" s="3">
         <v>2000</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2628,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2524,10 +2644,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
@@ -2535,7 +2655,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2557,27 +2677,27 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="12"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2599,14 +2719,14 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2617,11 +2737,11 @@
       <c r="B4" s="3">
         <v>1040</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
         <v>1000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -2631,11 +2751,11 @@
       <c r="C5" s="3">
         <v>1000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -2645,11 +2765,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -2659,25 +2779,25 @@
       <c r="B7" s="3">
         <v>1040</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
         <v>2000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10">
         <v>44173</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="3">
         <v>2000</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>11</v>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +2832,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2730,21 +2850,21 @@
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
